--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H2">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I2">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J2">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>637.9939336310312</v>
+        <v>889.3320869571487</v>
       </c>
       <c r="R2">
-        <v>637.9939336310312</v>
+        <v>8003.988782614338</v>
       </c>
       <c r="S2">
-        <v>0.005206513808182461</v>
+        <v>0.006286044218996299</v>
       </c>
       <c r="T2">
-        <v>0.005206513808182461</v>
+        <v>0.0062860442189963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H3">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I3">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J3">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>22697.01766946939</v>
+        <v>26618.64614182075</v>
       </c>
       <c r="R3">
-        <v>22697.01766946939</v>
+        <v>239567.8152763868</v>
       </c>
       <c r="S3">
-        <v>0.1852248582178462</v>
+        <v>0.1881479248879984</v>
       </c>
       <c r="T3">
-        <v>0.1852248582178462</v>
+        <v>0.1881479248879984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H4">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I4">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J4">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>8260.574587914038</v>
+        <v>11368.44954564282</v>
       </c>
       <c r="R4">
-        <v>8260.574587914038</v>
+        <v>102316.0459107854</v>
       </c>
       <c r="S4">
-        <v>0.06741254640262569</v>
+        <v>0.08035533361879306</v>
       </c>
       <c r="T4">
-        <v>0.06741254640262569</v>
+        <v>0.08035533361879307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.52854197839549</v>
+        <v>109.3723396666667</v>
       </c>
       <c r="H5">
-        <v>93.52854197839549</v>
+        <v>328.117019</v>
       </c>
       <c r="I5">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="J5">
-        <v>0.2791994616604099</v>
+        <v>0.3006244632995563</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>2616.85794626011</v>
+        <v>3655.086803320523</v>
       </c>
       <c r="R5">
-        <v>2616.85794626011</v>
+        <v>32895.78122988471</v>
       </c>
       <c r="S5">
-        <v>0.02135554323175554</v>
+        <v>0.02583516057376856</v>
       </c>
       <c r="T5">
-        <v>0.02135554323175554</v>
+        <v>0.02583516057376856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H6">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I6">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J6">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>1163.166259636853</v>
+        <v>1388.417182382336</v>
       </c>
       <c r="R6">
-        <v>1163.166259636853</v>
+        <v>12495.75464144102</v>
       </c>
       <c r="S6">
-        <v>0.009492317830585503</v>
+        <v>0.009813715181166227</v>
       </c>
       <c r="T6">
-        <v>0.009492317830585503</v>
+        <v>0.009813715181166228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H7">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I7">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J7">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>41380.3388337174</v>
+        <v>41556.78875987747</v>
       </c>
       <c r="R7">
-        <v>41380.3388337174</v>
+        <v>374011.0988388972</v>
       </c>
       <c r="S7">
-        <v>0.3376949123933481</v>
+        <v>0.293734832662869</v>
       </c>
       <c r="T7">
-        <v>0.3376949123933481</v>
+        <v>0.293734832662869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H8">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I8">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J8">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>15060.3652156856</v>
+        <v>17748.32024808939</v>
       </c>
       <c r="R8">
-        <v>15060.3652156856</v>
+        <v>159734.8822328045</v>
       </c>
       <c r="S8">
-        <v>0.1229039890794411</v>
+        <v>0.125450017522839</v>
       </c>
       <c r="T8">
-        <v>0.1229039890794411</v>
+        <v>0.125450017522839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>170.517678315754</v>
+        <v>170.751104</v>
       </c>
       <c r="H9">
-        <v>170.517678315754</v>
+        <v>512.2533120000001</v>
       </c>
       <c r="I9">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="J9">
-        <v>0.5090258329947956</v>
+        <v>0.4693321835689973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>4770.955817759677</v>
+        <v>5706.288342965931</v>
       </c>
       <c r="R9">
-        <v>4770.955817759677</v>
+        <v>51356.59508669338</v>
       </c>
       <c r="S9">
-        <v>0.03893461369142088</v>
+        <v>0.04033361820212308</v>
       </c>
       <c r="T9">
-        <v>0.03893461369142088</v>
+        <v>0.04033361820212309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H10">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I10">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J10">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>413.4969839366017</v>
+        <v>560.7999851666686</v>
       </c>
       <c r="R10">
-        <v>413.4969839366017</v>
+        <v>5047.199866500018</v>
       </c>
       <c r="S10">
-        <v>0.003374448631909382</v>
+        <v>0.003963888806521838</v>
       </c>
       <c r="T10">
-        <v>0.003374448631909382</v>
+        <v>0.003963888806521839</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H11">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I11">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J11">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>14710.40374516952</v>
+        <v>16785.33427548438</v>
       </c>
       <c r="R11">
-        <v>14710.40374516952</v>
+        <v>151068.0084793594</v>
       </c>
       <c r="S11">
-        <v>0.1200480383681173</v>
+        <v>0.1186433673469976</v>
       </c>
       <c r="T11">
-        <v>0.1200480383681173</v>
+        <v>0.1186433673469976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H12">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I12">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J12">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>5353.848207060217</v>
+        <v>7168.780290361554</v>
       </c>
       <c r="R12">
-        <v>5353.848207060217</v>
+        <v>64519.022613254</v>
       </c>
       <c r="S12">
-        <v>0.04369145715591195</v>
+        <v>0.05067091423144971</v>
       </c>
       <c r="T12">
-        <v>0.04369145715591195</v>
+        <v>0.05067091423144972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.6177707677397</v>
+        <v>68.96861966666667</v>
       </c>
       <c r="H13">
-        <v>60.6177707677397</v>
+        <v>206.905859</v>
       </c>
       <c r="I13">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="J13">
-        <v>0.180954910740686</v>
+        <v>0.1895694499632422</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>1696.039430987554</v>
+        <v>2304.845012506337</v>
       </c>
       <c r="R13">
-        <v>1696.039430987554</v>
+        <v>20743.60511255703</v>
       </c>
       <c r="S13">
-        <v>0.01384096658474736</v>
+        <v>0.01629127957827301</v>
       </c>
       <c r="T13">
-        <v>0.01384096658474736</v>
+        <v>0.01629127957827301</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H14">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I14">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J14">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>70.42578762953157</v>
+        <v>119.7332391942227</v>
       </c>
       <c r="R14">
-        <v>70.42578762953157</v>
+        <v>1077.599152748004</v>
       </c>
       <c r="S14">
-        <v>0.0005747277778307816</v>
+        <v>0.0008463075234738604</v>
       </c>
       <c r="T14">
-        <v>0.0005747277778307816</v>
+        <v>0.0008463075234738604</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H15">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I15">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J15">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>2505.439725917843</v>
+        <v>3583.741970257467</v>
       </c>
       <c r="R15">
-        <v>2505.439725917843</v>
+        <v>32253.6777323172</v>
       </c>
       <c r="S15">
-        <v>0.02044628614933536</v>
+        <v>0.02533087563678203</v>
       </c>
       <c r="T15">
-        <v>0.02044628614933536</v>
+        <v>0.02533087563678203</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H16">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I16">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J16">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>911.854237101234</v>
+        <v>1530.565813017259</v>
       </c>
       <c r="R16">
-        <v>911.854237101234</v>
+        <v>13775.09231715533</v>
       </c>
       <c r="S16">
-        <v>0.007441421346277114</v>
+        <v>0.01081846086722169</v>
       </c>
       <c r="T16">
-        <v>0.007441421346277114</v>
+        <v>0.01081846086722169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.3242693816577</v>
+        <v>14.72510066666667</v>
       </c>
       <c r="H17">
-        <v>10.3242693816577</v>
+        <v>44.175302</v>
       </c>
       <c r="I17">
-        <v>0.03081979460410844</v>
+        <v>0.0404739031682042</v>
       </c>
       <c r="J17">
-        <v>0.03081979460410844</v>
+        <v>0.04047390316820419</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>288.8652575912249</v>
+        <v>492.0944480874329</v>
       </c>
       <c r="R17">
-        <v>288.8652575912249</v>
+        <v>4428.850032786896</v>
       </c>
       <c r="S17">
-        <v>0.002357359330665185</v>
+        <v>0.003478259140726618</v>
       </c>
       <c r="T17">
-        <v>0.002357359330665185</v>
+        <v>0.003478259140726618</v>
       </c>
     </row>
   </sheetData>
